--- a/data_impute_project/corr_combinations/marine_mammals/combination_1_ABCD_correlation_results.xlsx
+++ b/data_impute_project/corr_combinations/marine_mammals/combination_1_ABCD_correlation_results.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable 1</t>
+          <t>Feature 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variable 2</t>
+          <t>Feature 2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/data_impute_project/corr_combinations/marine_mammals/combination_1_ABCD_correlation_results.xlsx
+++ b/data_impute_project/corr_combinations/marine_mammals/combination_1_ABCD_correlation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>P-Value</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +477,11 @@
       <c r="D2" t="n">
         <v>0.001009168850548125</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +500,11 @@
       <c r="D3" t="n">
         <v>7.706482077728123e-06</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +523,11 @@
       <c r="D4" t="n">
         <v>0.9478962105541403</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,6 +546,11 @@
       <c r="D5" t="n">
         <v>0.290705866983106</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -544,6 +569,11 @@
       <c r="D6" t="n">
         <v>0.2560512374563092</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -561,6 +591,11 @@
       </c>
       <c r="D7" t="n">
         <v>0.7516313681319661</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
       </c>
     </row>
   </sheetData>
